--- a/hello.xlsx
+++ b/hello.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -42,6 +42,14 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,7 +79,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -84,6 +92,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -92,6 +103,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -355,323 +369,1832 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="5.75" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.68" customWidth="1" style="4" min="2" max="2"/>
-    <col width="9.92" customWidth="1" style="4" min="3" max="3"/>
-    <col width="12.84" customWidth="1" style="4" min="4" max="4"/>
-    <col width="5.75" customWidth="1" style="4" min="5" max="5"/>
-    <col width="19.1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="5.88" customWidth="1" style="4" min="7" max="7"/>
-    <col width="5.19" customWidth="1" style="4" min="8" max="8"/>
+    <col width="5.75" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.68" customWidth="1" style="5" min="2" max="2"/>
+    <col width="9.92" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.84" customWidth="1" style="5" min="4" max="4"/>
+    <col width="5.75" customWidth="1" style="5" min="5" max="5"/>
+    <col width="19.1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="5.88" customWidth="1" style="5" min="7" max="7"/>
+    <col width="5.19" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>DATE ARRIVEE</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>DATE FIN</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>RESP</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>TECH</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>NB J</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>REF1</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>45784</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>45784</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Préparé</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>AIN</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>Une belle description</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>NAS</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="5">
-      <c r="A3" s="6" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>REF2</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>45784</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>45784</v>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="B3" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>45785</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Bilan Terminé</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>AIN</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Une belle description</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>NAS</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="5">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>REF3</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>45784</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>45784</v>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="B4" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>45786</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Initialisé</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>AIN</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Une belle description</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>NAS</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="5">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="5">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="4" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="5">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="5">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="5">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="5">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="5">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="5">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="5">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="5">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="5">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="5">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="5">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="5">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>REF4</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>45787</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>REF5</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>45788</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>45788</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="6">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>REF6</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>45789</v>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="6">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>REF7</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>45790</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>45790</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="6">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>REF8</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>45791</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="6">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>REF9</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>45792</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>45792</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="6">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>REF10</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>45793</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>REF11</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>45794</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>REF12</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>45795</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>45795</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>REF13</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>45796</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>REF14</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>45797</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>REF15</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>45798</v>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="6">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>REF16</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>45799</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="6">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>REF17</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>45800</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>45800</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="6">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>REF18</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>45801</v>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>45801</v>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="6">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>REF19</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>45802</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>45802</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="6">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>REF20</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>45803</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="6">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>REF21</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>45804</v>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>45804</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="6">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>REF22</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>45805</v>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="6">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>REF23</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>45806</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>45806</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="6">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>REF24</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>45807</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>45807</v>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="6">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>REF25</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>45808</v>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="6">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>REF26</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>45809</v>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>45809</v>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="6">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>REF27</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>45810</v>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="6">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>REF28</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>45811</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>45811</v>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="6">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>REF29</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>45812</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>45812</v>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="6">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>REF30</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>45813</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>45813</v>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="6">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>REF31</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>45814</v>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>45814</v>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="6">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>REF32</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>45815</v>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>45815</v>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="6">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>REF33</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>45816</v>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>45816</v>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="6">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>REF34</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>45817</v>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>45817</v>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="6">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>REF35</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>45818</v>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>45818</v>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="6">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>REF36</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>45819</v>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>45819</v>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G37" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="6">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>REF37</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>45820</v>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>45820</v>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="6">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>REF38</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>45821</v>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>45821</v>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="6">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>REF39</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>45822</v>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>45822</v>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="6">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>REF40</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>45823</v>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>45823</v>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="6">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>REF41</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>45824</v>
+      </c>
+      <c r="C42" s="8" t="n">
+        <v>45824</v>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="6">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>REF42</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="n">
+        <v>45825</v>
+      </c>
+      <c r="C43" s="8" t="n">
+        <v>45825</v>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="6">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>REF43</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="n">
+        <v>45826</v>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>45826</v>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="6">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>REF44</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>45827</v>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="6">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>REF45</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="n">
+        <v>45828</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>45828</v>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="6">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>REF46</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="n">
+        <v>45829</v>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>45829</v>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G47" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="6">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>REF47</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="n">
+        <v>45830</v>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>45830</v>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>Bilan Terminé</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="6">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>REF48</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="n">
+        <v>45831</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>45831</v>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>Initialisé</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="6">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>REF49</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="n">
+        <v>45832</v>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>Préparé</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="inlineStr">
+        <is>
+          <t>AIN</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>Une belle description</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="inlineStr">
+        <is>
+          <t>NAS</t>
+        </is>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="K50" s="9" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
